--- a/DATA/Resultado.xlsx
+++ b/DATA/Resultado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ProductsList" sheetId="1" state="visible" r:id="rId3"/>
@@ -760,7 +760,7 @@
   </sheetPr>
   <dimension ref="A1:XFD53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
@@ -3114,8 +3114,8 @@
   </sheetPr>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3123,15 +3123,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.65"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="35.73"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="17.65"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="17.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="17.65"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="16.73"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="13" style="0" width="17.65"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
